--- a/Docs/06 Testing/副本标准工时制作管理系统体验课题记录（最新）.xlsx
+++ b/Docs/06 Testing/副本标准工时制作管理系统体验课题记录（最新）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="690" windowWidth="20730" windowHeight="11760" tabRatio="751"/>
+    <workbookView xWindow="1068" yWindow="696" windowWidth="20736" windowHeight="11760" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="课题记录 " sheetId="18" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'课题记录 '!$A$3:$Q$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'课题记录  (2)'!$A$3:$H$51</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="144">
   <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -243,6 +243,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>IT</t>
     </r>
@@ -1061,10 +1062,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>在登录界面设置版权</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>设置相关模块无</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1090,6 +1087,29 @@
   </si>
   <si>
     <t>输入""后，治工具名自动显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+  </si>
+  <si>
+    <t>登录界面的风格与EPSON的色调、VI及系统的类型不是很搭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照邮件说的增加1倍处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发阶段测试用，已删除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未能重现，原来就可以的，按down选择，按enter确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已能打开本地视频</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1101,33 +1121,45 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>已处理</t>
-  </si>
-  <si>
-    <t>登录界面的风格与EPSON的色调、VI及系统的类型不是很搭</t>
+    <t>在登录界面设置版权</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>按照邮件说的增加1倍处理</t>
+    <t>登录者的信息没有显示(部门?)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未处理</t>
+  </si>
+  <si>
+    <t>现在使用CS方式，快捷键不受浏览器限制</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>开发阶段测试用，已删除</t>
+    <t>删除</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>未能重现，原来就可以的，按down选择，按enter确认</t>
+    <t>无法重现，用CS模式会避免该问题</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>已能打开本地视频</t>
+    <t>未能重现</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有单行删除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了改功能</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="65">
     <font>
       <sz val="11"/>
@@ -1184,10 +1216,12 @@
     <font>
       <sz val="11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1333,6 +1367,7 @@
       <strike/>
       <sz val="11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <strike/>
@@ -1451,6 +1486,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2241,7 +2277,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1195748</xdr:colOff>
+      <xdr:colOff>1142408</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>688431</xdr:rowOff>
     </xdr:to>
@@ -2250,7 +2286,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B2B81-BA32-4394-B169-793F8C3E02A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,8 +2320,8 @@
       <xdr:rowOff>86331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1192463</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3743</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>677224</xdr:rowOff>
     </xdr:to>
@@ -2294,7 +2330,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA739EC-426E-488C-8EB4-E9BFFCDD8554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2374,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E59D5F-3A3D-4CC8-BC62-636223D083FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2390,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8779569" y="3593934"/>
+          <a:off x="7941369" y="3643239"/>
           <a:ext cx="863347" cy="462328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2378,7 +2414,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1154206</xdr:colOff>
+      <xdr:colOff>1146586</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>571500</xdr:rowOff>
     </xdr:to>
@@ -2387,7 +2423,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3142A9-7F63-479C-9720-07589AB2CE7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,8 +2431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5535705" y="28371832"/>
-          <a:ext cx="1098177" cy="505727"/>
+          <a:off x="4985583" y="28505958"/>
+          <a:ext cx="1090557" cy="505727"/>
           <a:chOff x="161924" y="422672"/>
           <a:chExt cx="6267451" cy="2786066"/>
         </a:xfrm>
@@ -2406,7 +2442,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F21A3D8-CA0F-48DB-846B-4577426E88DB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2434,7 +2470,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A8C184-1A17-4247-BB9C-68650D799358}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2501,7 +2537,7 @@
         <xdr:cNvPr id="7" name="组合 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C52A969-B543-4095-8357-9B29AA726D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,8 +2545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5569129" y="15097685"/>
-          <a:ext cx="1090084" cy="555252"/>
+          <a:off x="5019007" y="15383004"/>
+          <a:ext cx="1051984" cy="555252"/>
           <a:chOff x="1979082" y="8911167"/>
           <a:chExt cx="13009526" cy="2694661"/>
         </a:xfrm>
@@ -2520,7 +2556,7 @@
           <xdr:cNvPr id="27" name="图片 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AEFA32-3788-40F7-BEBA-24C5E9F08CB5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2548,7 +2584,7 @@
           <xdr:cNvPr id="28" name="矩形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E3554-6CC3-43CF-A6C2-99B0412D27C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2615,7 +2651,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AF9E09-0798-485C-907F-F44410CAF4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2659,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5591541" y="28978411"/>
+          <a:off x="5041419" y="29099435"/>
           <a:ext cx="1030940" cy="504265"/>
           <a:chOff x="4840946" y="15710647"/>
           <a:chExt cx="13058787" cy="5819774"/>
@@ -2634,7 +2670,7 @@
           <xdr:cNvPr id="36" name="图片 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07457ED1-E75B-4492-AB11-171F75C37693}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2662,7 +2698,7 @@
           <xdr:cNvPr id="37" name="矩形 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4A936E-B663-4FEF-9170-AF86328014E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2720,7 +2756,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:colOff>1287780</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>425822</xdr:rowOff>
     </xdr:to>
@@ -2729,7 +2765,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95383609-D589-4189-9C36-718D395328F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95383609-D589-4189-9C36-718D395328F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,8 +2780,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8585947" y="26523205"/>
-          <a:ext cx="1243853" cy="425822"/>
+          <a:off x="7745506" y="29852471"/>
+          <a:ext cx="1198133" cy="425822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2772,7 +2808,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CE1696-FFAC-4D0D-9BC6-623C84080B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,8 +2841,8 @@
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1221443</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2243</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>739588</xdr:rowOff>
     </xdr:to>
@@ -2815,7 +2851,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5922A382-D927-4B52-BEEB-C2668363FB35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2894,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD02A9C6-4197-440B-8FC2-A69BD1CF140A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2932,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3447B6E4-297B-4626-BEB1-4BD2E742BFB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2926,21 +2962,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>173936</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50938</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1101588</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>555191</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>504253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CD05AE-AB07-4A92-90DD-14CF4D5829B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2992,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5650811" y="9585463"/>
+          <a:off x="5104524" y="7431741"/>
           <a:ext cx="927652" cy="504253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2974,8 +3010,8 @@
       <xdr:rowOff>198783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1215059</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3479</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>794624</xdr:rowOff>
     </xdr:to>
@@ -2984,7 +3020,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23342E00-592E-4AA7-9123-4D5229A234A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,8 +3036,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524086" y="18562983"/>
-          <a:ext cx="1167848" cy="595841"/>
+          <a:off x="4977799" y="10310971"/>
+          <a:ext cx="1099268" cy="595841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3023,7 +3059,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D352DE-53BF-42B9-B05C-32668E7F7DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +3103,7 @@
         <xdr:cNvPr id="21" name="组合 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAA580D-E6A2-4774-A96E-7EBCE998DBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,8 +3111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5575340" y="21456172"/>
-          <a:ext cx="1075911" cy="646871"/>
+          <a:off x="5025218" y="21703908"/>
+          <a:ext cx="1045431" cy="646871"/>
           <a:chOff x="3205370" y="17608826"/>
           <a:chExt cx="3889719" cy="3214139"/>
         </a:xfrm>
@@ -3086,7 +3122,7 @@
           <xdr:cNvPr id="47" name="图片 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75A2515-EDE2-40EE-B593-56435BAF7270}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3114,7 +3150,7 @@
           <xdr:cNvPr id="20" name="直接箭头连接符 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F879196-4649-4521-9EDE-9B226B334913}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3141,14 +3177,14 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:effectLst>
                   <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="808080"/>
@@ -3170,8 +3206,8 @@
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1199038</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2698</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>647904</xdr:rowOff>
     </xdr:to>
@@ -3180,7 +3216,7 @@
         <xdr:cNvPr id="49" name="图片 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C498E5-4FAD-466F-A44A-3D204083602A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,23 +3244,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>568102</xdr:rowOff>
+      <xdr:rowOff>574264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02ACE7F6-6C9F-49AB-B04A-8A2CA1B80091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,7 +3276,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8705850" y="25269826"/>
+          <a:off x="4987738" y="28722917"/>
           <a:ext cx="981075" cy="520476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3252,10 +3288,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>62754</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>466165</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="990600" cy="547032"/>
     <xdr:pic>
@@ -3263,7 +3299,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B4F15F-D156-49C7-88C9-0C0546D8FF38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3279,7 +3315,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5629276" y="24793576"/>
+          <a:off x="7109013" y="11178989"/>
           <a:ext cx="990600" cy="547032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3292,9 +3328,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>986678</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="970692" cy="533400"/>
     <xdr:pic>
@@ -3302,7 +3338,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72EDCD-D450-4A03-BD8A-6526BF3EF390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3318,7 +3354,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="24660225"/>
+          <a:off x="5917266" y="10721789"/>
           <a:ext cx="970692" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3330,23 +3366,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>43143</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213473</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>128120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147918</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>316380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{634E71DD-D275-4CF5-AF09-3ADB2B5A7043}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634E71DD-D275-4CF5-AF09-3ADB2B5A7043}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3362,8 +3398,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5522819" y="25695088"/>
-          <a:ext cx="1099857" cy="733238"/>
+          <a:off x="6703920" y="10309412"/>
+          <a:ext cx="1099857" cy="719791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3380,8 +3416,8 @@
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>646145</xdr:rowOff>
     </xdr:to>
@@ -3390,7 +3426,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265A18AF-7FD9-4852-A807-4A9065120A0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3442,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5553075" y="15868651"/>
+          <a:off x="5006788" y="14938563"/>
           <a:ext cx="1066800" cy="588994"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3425,7 +3461,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1408234</xdr:colOff>
+      <xdr:colOff>1286314</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>654328</xdr:rowOff>
     </xdr:to>
@@ -3434,7 +3470,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9C4C4A-8486-4FAD-A7B8-1DC65A159E7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,8 +3485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8838144" y="4325472"/>
-          <a:ext cx="1064149" cy="542268"/>
+          <a:off x="7993393" y="4713368"/>
+          <a:ext cx="942229" cy="542268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3468,7 +3504,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1156479</xdr:colOff>
+      <xdr:colOff>1141239</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>687972</xdr:rowOff>
     </xdr:to>
@@ -3477,7 +3513,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A319DFA-C470-418C-AEC3-79A8CCAE0C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,8 +3547,8 @@
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1227736</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>916</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>723415</xdr:rowOff>
     </xdr:to>
@@ -3521,7 +3557,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD369F4-FF89-4A08-B457-FAB4D314ABD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3537,8 +3573,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5579067" y="7752522"/>
-          <a:ext cx="1128345" cy="590893"/>
+          <a:off x="5029979" y="4650734"/>
+          <a:ext cx="1044525" cy="590893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3570,7 +3606,7 @@
         <xdr:cNvPr id="48" name="组合 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{341AE850-04E9-477D-A62F-04CD01B91391}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341AE850-04E9-477D-A62F-04CD01B91391}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3589,7 +3625,7 @@
           <xdr:cNvPr id="49" name="图片 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A2E542D-8C7E-4687-A04E-F6B5557A2B1A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E542D-8C7E-4687-A04E-F6B5557A2B1A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3617,7 +3653,7 @@
           <xdr:cNvPr id="50" name="矩形 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49691DBF-D511-43BA-BEBC-B0DE9F1F4916}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49691DBF-D511-43BA-BEBC-B0DE9F1F4916}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3684,7 +3720,7 @@
         <xdr:cNvPr id="51" name="组合 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{290CB9EB-3A3B-42D5-8733-3A633D0F79A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290CB9EB-3A3B-42D5-8733-3A633D0F79A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3703,7 +3739,7 @@
           <xdr:cNvPr id="52" name="图片 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70569E23-3B69-472A-9545-B41F435C1BFF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70569E23-3B69-472A-9545-B41F435C1BFF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3732,7 +3768,7 @@
           <xdr:cNvPr id="53" name="矩形 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5764DAE7-E5B7-45AE-B17F-30A55A5054E8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5764DAE7-E5B7-45AE-B17F-30A55A5054E8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3799,7 +3835,7 @@
         <xdr:cNvPr id="54" name="组合 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4FB6AF2-1632-4DC0-94AC-CD8BD1D6FF85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FB6AF2-1632-4DC0-94AC-CD8BD1D6FF85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3818,7 +3854,7 @@
           <xdr:cNvPr id="55" name="图片 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{424FB97B-35FF-45DD-A58E-97C4AE5986DF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424FB97B-35FF-45DD-A58E-97C4AE5986DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3847,7 +3883,7 @@
           <xdr:cNvPr id="56" name="矩形 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34B711DC-CE0D-4A87-8208-531B71A2A00E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B711DC-CE0D-4A87-8208-531B71A2A00E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3874,14 +3910,14 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:effectLst>
                   <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="808080"/>
@@ -3921,7 +3957,7 @@
         <xdr:cNvPr id="57" name="图片 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A0E44A3-5FB7-45DC-8076-928A591E1064}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0E44A3-5FB7-45DC-8076-928A591E1064}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,7 +4005,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA40D1F-E98D-4779-B5DE-75CD1D518257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4013,7 +4049,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133DA2AF-CF85-4D35-A997-D6C79DC256CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4057,7 +4093,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B035E-628C-415E-B319-34B092DDAE08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,7 +4142,7 @@
         <xdr:cNvPr id="5" name="组合 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9EB5F-B847-42D8-BBF5-052ADCAE8843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4125,7 +4161,7 @@
           <xdr:cNvPr id="6" name="图片 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD71EF5F-5D64-41DF-A7F2-141005249294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4153,7 +4189,7 @@
           <xdr:cNvPr id="7" name="矩形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A4392B-E92B-4FC9-AC7D-371C5CB67A68}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4220,7 +4256,7 @@
         <xdr:cNvPr id="8" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1510FA4D-5D40-451D-904C-905ED5CBFC47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4239,7 +4275,7 @@
           <xdr:cNvPr id="9" name="图片 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5C40D5-1862-4CBB-B6E6-707F77D56720}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4267,7 +4303,7 @@
           <xdr:cNvPr id="10" name="矩形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B433086-303A-422F-8D3D-B19E2223A5E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4334,7 +4370,7 @@
         <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C96F5D-A571-4F92-808B-8054033C1C68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4353,7 +4389,7 @@
           <xdr:cNvPr id="12" name="图片 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423F377D-F999-4903-8C47-B49A9E1BBB3F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4382,7 +4418,7 @@
           <xdr:cNvPr id="13" name="矩形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABC0045-0D37-4A0E-B990-65A433DF712A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4449,7 +4485,7 @@
         <xdr:cNvPr id="14" name="组合 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695A3A22-8B01-4B94-AF82-D09D9BACA91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4468,7 +4504,7 @@
           <xdr:cNvPr id="15" name="图片 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B969C19A-37AF-4171-B52B-1822D75F97BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4496,7 +4532,7 @@
           <xdr:cNvPr id="16" name="矩形 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410C8424-D8D3-4E10-8379-A832596C88C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4563,7 +4599,7 @@
         <xdr:cNvPr id="17" name="组合 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9C950-5851-4D2A-9571-45E922882540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4582,7 +4618,7 @@
           <xdr:cNvPr id="18" name="图片 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED41D7D-F68A-4AC2-A1B0-07C11A05D254}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4610,7 +4646,7 @@
           <xdr:cNvPr id="19" name="矩形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBD272-C3EA-40B8-A221-2689DD5C211A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4677,7 +4713,7 @@
         <xdr:cNvPr id="20" name="组合 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0263C938-2310-4948-8135-8890B8AFE85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4696,7 +4732,7 @@
           <xdr:cNvPr id="21" name="图片 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD97B7C-70BD-4117-B3DA-F86F086B4EC3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4724,7 +4760,7 @@
           <xdr:cNvPr id="22" name="矩形 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FD535A-41D0-4995-BEF3-47E84293312B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4791,7 +4827,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D959CF-DCB6-43F2-BD17-E00A70826190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4834,7 +4870,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D48FC70-CC73-4FFA-93EF-910DB168505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4877,7 +4913,7 @@
         <xdr:cNvPr id="25" name="组合 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A4520C-878D-41DA-ACC8-C753AB4EEC8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4896,7 +4932,7 @@
           <xdr:cNvPr id="26" name="图片 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539EBE1B-E593-4CF1-8E00-732DB21C57C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4925,7 +4961,7 @@
           <xdr:cNvPr id="27" name="矩形 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E704DA5-79FB-4DCE-82CD-C7128EF5045D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4992,7 +5028,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60F9300-474C-4B97-8CFA-FA6A232996BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5035,7 +5071,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041F02E7-301A-4535-8E92-FCE7759A0E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5078,7 +5114,7 @@
         <xdr:cNvPr id="30" name="组合 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081C441-A16E-47A6-91AB-CE7259525E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5097,7 +5133,7 @@
           <xdr:cNvPr id="31" name="图片 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50922B92-5CDB-4001-81FE-970A069D1776}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5126,7 +5162,7 @@
           <xdr:cNvPr id="32" name="矩形 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D45F2F-BE07-4DD2-85CD-D54AAECFCF4A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5153,14 +5189,14 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:effectLst>
                   <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="808080"/>
@@ -5200,7 +5236,7 @@
         <xdr:cNvPr id="33" name="组合 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276B5F4B-7CC1-4301-8950-5FD9EA8CAF37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5219,7 +5255,7 @@
           <xdr:cNvPr id="34" name="图片 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B8C32B-6E2A-4807-A1D7-6F444FC24D6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5247,7 +5283,7 @@
           <xdr:cNvPr id="35" name="矩形 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D2AE0D-123E-42DC-ABED-86AA7E367A25}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5274,14 +5310,14 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:effectLst>
                   <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="808080"/>
@@ -5321,7 +5357,7 @@
         <xdr:cNvPr id="36" name="图片 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD693BB-8FF5-4C75-9399-B6802382149F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5364,7 +5400,7 @@
         <xdr:cNvPr id="37" name="图片 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E1CE8D-148A-4110-B326-60CF5214D964}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5407,7 +5443,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD76119-757D-4D4D-9EF0-428B965CA83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5445,7 +5481,7 @@
         <xdr:cNvPr id="39" name="图片 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F58B90-C3E8-4CBD-923D-36B5F3F410CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5489,7 +5525,7 @@
         <xdr:cNvPr id="40" name="图片 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B687413-23BF-4281-9D42-6D9D81EC9986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5533,7 +5569,7 @@
         <xdr:cNvPr id="41" name="图片 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99954A59-2E00-4CDA-A0DC-610C9B6FF2C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5572,7 +5608,7 @@
         <xdr:cNvPr id="42" name="图片 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DD4F50-D468-4FED-989B-6D6A38F1285C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +5652,7 @@
         <xdr:cNvPr id="43" name="组合 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D60B776-8290-4A05-8D0B-E49A20D889D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5635,7 +5671,7 @@
           <xdr:cNvPr id="44" name="图片 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57538BB3-6956-4C33-8DD0-A16EEBE15ECC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5663,7 +5699,7 @@
           <xdr:cNvPr id="45" name="直接箭头连接符 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46ADCBE-FF68-4902-9EB2-648E3FE62B5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5690,14 +5726,14 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:effectLst>
                   <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                     <a:srgbClr val="808080"/>
@@ -5729,7 +5765,7 @@
         <xdr:cNvPr id="46" name="图片 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6366B4A9-4196-44F0-8E96-85299FE69047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5773,7 +5809,7 @@
         <xdr:cNvPr id="47" name="图片 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3029897-09D5-4E82-88FE-30DA2683D8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5785,7 +5821,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6086,14 +6122,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6133,14 +6169,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -6157,36 +6193,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="36" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="36" customWidth="1"/>
-    <col min="11" max="13" width="9.5" style="36" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="36" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="36" customWidth="1"/>
-    <col min="16" max="16" width="24.125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="36" customWidth="1"/>
+    <col min="11" max="13" width="9.44140625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="36" customWidth="1"/>
+    <col min="16" max="16" width="24.109375" style="38" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -6210,7 +6247,7 @@
       <c r="O1" s="141"/>
       <c r="P1" s="142"/>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="23.25" thickBot="1">
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6278,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="121" customFormat="1" ht="75" customHeight="1">
+    <row r="4" spans="1:17" s="121" customFormat="1" ht="101.4" customHeight="1">
       <c r="A4" s="112">
         <v>1</v>
       </c>
@@ -6286,7 +6323,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="113" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D4" s="114"/>
       <c r="E4" s="126" t="s">
@@ -6318,7 +6355,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="113" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="114"/>
       <c r="E5" s="126" t="s">
@@ -6338,7 +6375,9 @@
       </c>
       <c r="J5" s="116"/>
       <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
+      <c r="L5" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="119"/>
       <c r="O5" s="116"/>
@@ -6370,7 +6409,9 @@
       </c>
       <c r="J6" s="116"/>
       <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
+      <c r="L6" s="118" t="s">
+        <v>137</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="119"/>
       <c r="O6" s="116"/>
@@ -6406,7 +6447,9 @@
       </c>
       <c r="J7" s="116"/>
       <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
+      <c r="L7" s="118" t="s">
+        <v>137</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="119"/>
       <c r="O7" s="116"/>
@@ -6441,7 +6484,9 @@
       </c>
       <c r="J8" s="116"/>
       <c r="K8" s="117"/>
-      <c r="L8" s="118"/>
+      <c r="L8" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="119"/>
       <c r="O8" s="116"/>
@@ -6455,7 +6500,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="D9" s="125"/>
       <c r="E9" s="126" t="s">
@@ -6473,7 +6518,9 @@
       </c>
       <c r="J9" s="116"/>
       <c r="K9" s="127"/>
-      <c r="L9" s="128"/>
+      <c r="L9" s="128" t="s">
+        <v>128</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="119"/>
       <c r="O9" s="116"/>
@@ -6487,7 +6534,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="126" t="s">
@@ -6505,7 +6552,9 @@
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
+      <c r="L10" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="63"/>
       <c r="O10" s="64"/>
@@ -6520,7 +6569,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="126" t="s">
@@ -6538,7 +6587,9 @@
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
+      <c r="L11" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="63"/>
       <c r="O11" s="64"/>
@@ -6553,7 +6604,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="71"/>
       <c r="E12" s="126" t="s">
@@ -6672,13 +6723,13 @@
       <c r="J15" s="116"/>
       <c r="K15" s="117"/>
       <c r="L15" s="118" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="119"/>
       <c r="O15" s="116"/>
       <c r="P15" s="120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="121" customFormat="1" ht="47.25" customHeight="1">
@@ -6710,13 +6761,13 @@
       <c r="J16" s="116"/>
       <c r="K16" s="117"/>
       <c r="L16" s="118" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="119"/>
       <c r="O16" s="116"/>
       <c r="P16" s="120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="121" customFormat="1" ht="47.25" customHeight="1">
@@ -6746,13 +6797,13 @@
       <c r="J17" s="116"/>
       <c r="K17" s="117"/>
       <c r="L17" s="118" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="119"/>
       <c r="O17" s="116"/>
       <c r="P17" s="120" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="121" customFormat="1" ht="47.25" customHeight="1">
@@ -6781,11 +6832,15 @@
       </c>
       <c r="J18" s="116"/>
       <c r="K18" s="117"/>
-      <c r="L18" s="118"/>
+      <c r="L18" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="119"/>
       <c r="O18" s="116"/>
-      <c r="P18" s="120"/>
+      <c r="P18" s="120" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" spans="1:17" s="121" customFormat="1" ht="47.25" customHeight="1">
       <c r="A19" s="112">
@@ -6813,11 +6868,15 @@
       </c>
       <c r="J19" s="116"/>
       <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
+      <c r="L19" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M19" s="10"/>
       <c r="N19" s="119"/>
       <c r="O19" s="116"/>
-      <c r="P19" s="120"/>
+      <c r="P19" s="120" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="20" spans="1:17" s="121" customFormat="1" ht="69" customHeight="1">
       <c r="A20" s="112">
@@ -6913,7 +6972,9 @@
       </c>
       <c r="J22" s="116"/>
       <c r="K22" s="117"/>
-      <c r="L22" s="118"/>
+      <c r="L22" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M22" s="10"/>
       <c r="N22" s="119"/>
       <c r="O22" s="116"/>
@@ -6947,11 +7008,15 @@
       </c>
       <c r="J23" s="116"/>
       <c r="K23" s="117"/>
-      <c r="L23" s="118"/>
+      <c r="L23" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M23" s="10"/>
       <c r="N23" s="119"/>
       <c r="O23" s="116"/>
-      <c r="P23" s="120"/>
+      <c r="P23" s="120" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="24" spans="1:17" s="121" customFormat="1" ht="54" customHeight="1">
       <c r="A24" s="112">
@@ -7047,7 +7112,9 @@
       </c>
       <c r="J26" s="116"/>
       <c r="K26" s="117"/>
-      <c r="L26" s="118"/>
+      <c r="L26" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M26" s="10"/>
       <c r="N26" s="119"/>
       <c r="O26" s="116"/>
@@ -7113,7 +7180,9 @@
       </c>
       <c r="J28" s="116"/>
       <c r="K28" s="117"/>
-      <c r="L28" s="118"/>
+      <c r="L28" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M28" s="10"/>
       <c r="N28" s="119"/>
       <c r="O28" s="116"/>
@@ -7147,7 +7216,9 @@
       </c>
       <c r="J29" s="116"/>
       <c r="K29" s="117"/>
-      <c r="L29" s="118"/>
+      <c r="L29" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M29" s="10"/>
       <c r="N29" s="119"/>
       <c r="O29" s="116"/>
@@ -7181,7 +7252,9 @@
       </c>
       <c r="J30" s="116"/>
       <c r="K30" s="117"/>
-      <c r="L30" s="118"/>
+      <c r="L30" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M30" s="10"/>
       <c r="N30" s="119"/>
       <c r="O30" s="116"/>
@@ -7216,13 +7289,13 @@
       <c r="J31" s="116"/>
       <c r="K31" s="127"/>
       <c r="L31" s="128" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="119"/>
       <c r="O31" s="116"/>
       <c r="P31" s="120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="123">
         <f>21/33</f>
@@ -7291,11 +7364,15 @@
       </c>
       <c r="J33" s="116"/>
       <c r="K33" s="117"/>
-      <c r="L33" s="118"/>
+      <c r="L33" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M33" s="10"/>
       <c r="N33" s="119"/>
       <c r="O33" s="116"/>
-      <c r="P33" s="120"/>
+      <c r="P33" s="120" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="34" spans="1:17" s="121" customFormat="1" ht="47.25" customHeight="1">
       <c r="A34" s="112">
@@ -7325,11 +7402,15 @@
       </c>
       <c r="J34" s="116"/>
       <c r="K34" s="117"/>
-      <c r="L34" s="118"/>
+      <c r="L34" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M34" s="10"/>
       <c r="N34" s="119"/>
       <c r="O34" s="116"/>
-      <c r="P34" s="120"/>
+      <c r="P34" s="120" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="35" spans="1:17" s="65" customFormat="1" ht="78.75" customHeight="1">
       <c r="A35" s="112">
@@ -7339,7 +7420,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="71"/>
       <c r="E35" s="126" t="s">
@@ -7357,7 +7438,9 @@
       </c>
       <c r="J35" s="33"/>
       <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="L35" s="73" t="s">
+        <v>128</v>
+      </c>
       <c r="M35" s="10"/>
       <c r="N35" s="63"/>
       <c r="O35" s="64"/>
@@ -7371,7 +7454,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="71"/>
       <c r="E36" s="126" t="s">
@@ -7389,7 +7472,7 @@
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
+      <c r="L36" s="118"/>
       <c r="M36" s="10"/>
       <c r="N36" s="63"/>
       <c r="O36" s="64"/>
@@ -7403,7 +7486,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" s="71"/>
       <c r="E37" s="126" t="s">
@@ -7420,11 +7503,15 @@
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
+      <c r="L37" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M37" s="10"/>
       <c r="N37" s="63"/>
       <c r="O37" s="64"/>
-      <c r="P37" s="34"/>
+      <c r="P37" s="34" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="38" spans="1:17" s="65" customFormat="1" ht="62.25" customHeight="1">
       <c r="A38" s="112">
@@ -7434,7 +7521,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="71"/>
       <c r="E38" s="126" t="s">
@@ -7452,7 +7539,7 @@
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
+      <c r="L38" s="118"/>
       <c r="M38" s="10"/>
       <c r="N38" s="63"/>
       <c r="O38" s="64"/>
@@ -7466,7 +7553,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="71"/>
       <c r="E39" s="126" t="s">
@@ -7484,7 +7571,7 @@
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="72"/>
-      <c r="L39" s="73"/>
+      <c r="L39" s="118"/>
       <c r="M39" s="10"/>
       <c r="N39" s="63"/>
       <c r="O39" s="64"/>
@@ -7516,7 +7603,9 @@
       </c>
       <c r="J40" s="116"/>
       <c r="K40" s="117"/>
-      <c r="L40" s="118"/>
+      <c r="L40" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M40" s="10"/>
       <c r="N40" s="119"/>
       <c r="O40" s="116"/>
@@ -7548,7 +7637,9 @@
       </c>
       <c r="J41" s="116"/>
       <c r="K41" s="117"/>
-      <c r="L41" s="118"/>
+      <c r="L41" s="128" t="s">
+        <v>128</v>
+      </c>
       <c r="M41" s="10"/>
       <c r="N41" s="119"/>
       <c r="O41" s="116"/>
@@ -7580,7 +7671,9 @@
       </c>
       <c r="J42" s="116"/>
       <c r="K42" s="117"/>
-      <c r="L42" s="118"/>
+      <c r="L42" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M42" s="10"/>
       <c r="N42" s="119"/>
       <c r="O42" s="116"/>
@@ -7615,7 +7708,7 @@
       <c r="J43" s="132"/>
       <c r="K43" s="127"/>
       <c r="L43" s="128" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="119"/>
@@ -7650,7 +7743,9 @@
       </c>
       <c r="J44" s="132"/>
       <c r="K44" s="117"/>
-      <c r="L44" s="118"/>
+      <c r="L44" s="118" t="s">
+        <v>128</v>
+      </c>
       <c r="M44" s="10"/>
       <c r="N44" s="119"/>
       <c r="O44" s="116"/>
@@ -7735,7 +7830,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L43:L44 L47 L4:L9 L12:L35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L47 L4:L44">
       <formula1>"已处理,未处理"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I47">
@@ -7753,29 +7848,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="36" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="36" customWidth="1"/>
-    <col min="11" max="13" width="9.5" style="36" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="36" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="36" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="36" customWidth="1"/>
+    <col min="11" max="13" width="9.44140625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="36" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -7799,7 +7894,7 @@
       <c r="O1" s="141"/>
       <c r="P1" s="142"/>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="23.25" thickBot="1">
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -8177,29 +8272,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="6" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="36" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="36" customWidth="1"/>
-    <col min="11" max="13" width="9.5" style="36" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="36" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="36" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="36" customWidth="1"/>
+    <col min="11" max="13" width="9.44140625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="36" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="38" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -8223,7 +8318,7 @@
       <c r="O1" s="141"/>
       <c r="P1" s="142"/>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="23.25" thickBot="1">
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="48"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
